--- a/data/trans_orig/P05B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05B_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14152</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8363</v>
+        <v>8330</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23720</v>
+        <v>23189</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02041907745903038</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01206690111509075</v>
+        <v>0.01201887947187438</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03422533618748789</v>
+        <v>0.03345810323270135</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -765,19 +765,19 @@
         <v>20191</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12893</v>
+        <v>12215</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31116</v>
+        <v>31119</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02933282508826308</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01873032528692561</v>
+        <v>0.01774574719686561</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04520423704235243</v>
+        <v>0.04520779991664104</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -786,19 +786,19 @@
         <v>34343</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23905</v>
+        <v>23336</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47213</v>
+        <v>46722</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02486073630080771</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0173046922357627</v>
+        <v>0.01689281647797584</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03417719144260548</v>
+        <v>0.03382140971274746</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>678915</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>669347</v>
+        <v>669878</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>684704</v>
+        <v>684737</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9795809225409696</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9657746638125121</v>
+        <v>0.9665418967672986</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9879330988849092</v>
+        <v>0.9879811205281256</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>675</v>
@@ -836,19 +836,19 @@
         <v>668160</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>657235</v>
+        <v>657232</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>675458</v>
+        <v>676136</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9706671749117369</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9547957629576476</v>
+        <v>0.9547922000833584</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9812696747130744</v>
+        <v>0.9822542528031343</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1343</v>
@@ -857,19 +857,19 @@
         <v>1347075</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1334205</v>
+        <v>1334696</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1357513</v>
+        <v>1358082</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9751392636991922</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9658228085573946</v>
+        <v>0.9661785902872525</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9826953077642373</v>
+        <v>0.9831071835220236</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>22532</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14333</v>
+        <v>13911</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33634</v>
+        <v>33932</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02342710987337588</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01490213881969717</v>
+        <v>0.01446325338408099</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03497026096351886</v>
+        <v>0.03527942134280104</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -982,19 +982,19 @@
         <v>42727</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31044</v>
+        <v>31571</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56874</v>
+        <v>57473</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04419524858311624</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03211075677944355</v>
+        <v>0.03265582308593029</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05882907967659026</v>
+        <v>0.0594482003659326</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -1003,19 +1003,19 @@
         <v>65259</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51500</v>
+        <v>49650</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83235</v>
+        <v>83072</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03383793369552025</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0267038648839571</v>
+        <v>0.02574461842607778</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04315906815591292</v>
+        <v>0.04307444537232923</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>939268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>928166</v>
+        <v>927868</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947467</v>
+        <v>947889</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9765728901266241</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9650297390364811</v>
+        <v>0.964720578657199</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9850978611803028</v>
+        <v>0.9855367466159189</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>866</v>
@@ -1053,19 +1053,19 @@
         <v>924042</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>909895</v>
+        <v>909296</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>935725</v>
+        <v>935198</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9558047514168838</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9411709203234098</v>
+        <v>0.9405517996340674</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9678892432205564</v>
+        <v>0.9673441769140697</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1741</v>
@@ -1074,19 +1074,19 @@
         <v>1863310</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1845334</v>
+        <v>1845497</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1877069</v>
+        <v>1878919</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9661620663044798</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9568409318440877</v>
+        <v>0.9569255546276707</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.973296135116043</v>
+        <v>0.9742553815739221</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>16318</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9564</v>
+        <v>9426</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27858</v>
+        <v>27588</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02404956912616221</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01409555662887042</v>
+        <v>0.01389152964073432</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04105832727108755</v>
+        <v>0.04065956805961646</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1199,19 +1199,19 @@
         <v>26763</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18068</v>
+        <v>17975</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38588</v>
+        <v>38184</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03913671636096851</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02642077253101767</v>
+        <v>0.02628590783495704</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05642796966761355</v>
+        <v>0.05583705278685213</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1220,19 +1220,19 @@
         <v>43081</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31697</v>
+        <v>30462</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60290</v>
+        <v>56602</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03162266764550997</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02326608299725982</v>
+        <v>0.02235980883064227</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04425439460677336</v>
+        <v>0.04154755975335112</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>662191</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>650651</v>
+        <v>650921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>668945</v>
+        <v>669083</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9759504308738378</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9589416727289128</v>
+        <v>0.9593404319403834</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9859044433711297</v>
+        <v>0.9861084703592655</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>669</v>
@@ -1270,19 +1270,19 @@
         <v>657078</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>645253</v>
+        <v>645657</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>665773</v>
+        <v>665866</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9608632836390315</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9435720303323865</v>
+        <v>0.9441629472131479</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9735792274689823</v>
+        <v>0.9737140921650429</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1296</v>
@@ -1291,19 +1291,19 @@
         <v>1319269</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1302060</v>
+        <v>1305748</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1330653</v>
+        <v>1331888</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.96837733235449</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9557456053932266</v>
+        <v>0.9584524402466489</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9767339170027403</v>
+        <v>0.977640191169358</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>43355</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31883</v>
+        <v>31615</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57498</v>
+        <v>56585</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04616955990516644</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0339524566744878</v>
+        <v>0.03366663871032778</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06123050165227034</v>
+        <v>0.06025768106543435</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -1416,19 +1416,19 @@
         <v>68601</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54872</v>
+        <v>53642</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88069</v>
+        <v>86284</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06605026701124242</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05283229033816227</v>
+        <v>0.05164824133005334</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08479505996232747</v>
+        <v>0.08307579659843171</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>111</v>
@@ -1437,19 +1437,19 @@
         <v>111956</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93179</v>
+        <v>93251</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>135061</v>
+        <v>134466</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05661035675974902</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04711598350961202</v>
+        <v>0.04715231924477768</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06829335754601228</v>
+        <v>0.06799225803693715</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>895693</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>881550</v>
+        <v>882463</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>907165</v>
+        <v>907433</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9538304400948335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.93876949834773</v>
+        <v>0.9397423189345656</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9660475433255125</v>
+        <v>0.9663333612896722</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>931</v>
@@ -1487,19 +1487,19 @@
         <v>970011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>950543</v>
+        <v>952328</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>983740</v>
+        <v>984970</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9339497329887576</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9152049400376725</v>
+        <v>0.9169242034015683</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9471677096618377</v>
+        <v>0.9483517586699467</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1877</v>
@@ -1508,19 +1508,19 @@
         <v>1865704</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1842599</v>
+        <v>1843194</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1884481</v>
+        <v>1884409</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.943389643240251</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9317066424539875</v>
+        <v>0.9320077419630624</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9528840164903879</v>
+        <v>0.9528476807552223</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>96357</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78087</v>
+        <v>78236</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116517</v>
+        <v>119001</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02944522377167277</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02386214542493052</v>
+        <v>0.02390753992748186</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03560572440267813</v>
+        <v>0.03636472077989468</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>155</v>
@@ -1633,19 +1633,19 @@
         <v>158282</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>134148</v>
+        <v>135364</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186030</v>
+        <v>185064</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04686257438403699</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03971732864200321</v>
+        <v>0.04007718174581351</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05507797816365619</v>
+        <v>0.05479194402787485</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>249</v>
@@ -1654,19 +1654,19 @@
         <v>254639</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>226357</v>
+        <v>225176</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>288104</v>
+        <v>286481</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03829160054035863</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0340387241217887</v>
+        <v>0.03386111568779577</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04332391961276835</v>
+        <v>0.04307990637625513</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3176067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3155907</v>
+        <v>3153423</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3194337</v>
+        <v>3194188</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9705547762283272</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9643942755973219</v>
+        <v>0.9636352792201053</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9761378545750695</v>
+        <v>0.9760924600725183</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3141</v>
@@ -1704,19 +1704,19 @@
         <v>3219291</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3191543</v>
+        <v>3192509</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3243425</v>
+        <v>3242209</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.953137425615963</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9449220218363439</v>
+        <v>0.9452080559721253</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9602826713579969</v>
+        <v>0.9599228182541868</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6257</v>
@@ -1725,19 +1725,19 @@
         <v>6395358</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6361893</v>
+        <v>6363516</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6423640</v>
+        <v>6424821</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9617083994596414</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9566760803872317</v>
+        <v>0.9569200936237447</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9659612758782113</v>
+        <v>0.9661388843122042</v>
       </c>
     </row>
     <row r="18">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6757</v>
+        <v>5885</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002459613716841052</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009605560663963935</v>
+        <v>0.008365918480979038</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2090,19 +2090,19 @@
         <v>2870</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>930</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7692</v>
+        <v>8564</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004130848410216995</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001338987094068317</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01106966573340647</v>
+        <v>0.01232518272027174</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2111,19 +2111,19 @@
         <v>4601</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1656</v>
+        <v>1671</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9731</v>
+        <v>10996</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003290096006382096</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001184501263096374</v>
+        <v>0.001195045128329008</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006958773117575322</v>
+        <v>0.007863474622829244</v>
       </c>
     </row>
     <row r="5">
@@ -2140,7 +2140,7 @@
         <v>701739</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>696712</v>
+        <v>697584</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>703469</v>
@@ -2149,7 +2149,7 @@
         <v>0.997540386283159</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.990394439336036</v>
+        <v>0.99163408151902</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2161,19 +2161,19 @@
         <v>692006</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>687184</v>
+        <v>686312</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>693946</v>
+        <v>694876</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.995869151589783</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9889303342665935</v>
+        <v>0.9876748172797283</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9986610129059317</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1317</v>
@@ -2182,19 +2182,19 @@
         <v>1393744</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1388614</v>
+        <v>1387349</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1396689</v>
+        <v>1396674</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9967099039936179</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9930412268824248</v>
+        <v>0.9921365253771708</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9988154987369037</v>
+        <v>0.998804954871671</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>16451</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9096</v>
+        <v>9572</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26635</v>
+        <v>27618</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01622442261027464</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008970293477192656</v>
+        <v>0.009439887870611001</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0262672927095028</v>
+        <v>0.02723700779997746</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -2307,19 +2307,19 @@
         <v>26301</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17595</v>
+        <v>16763</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39859</v>
+        <v>38178</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02558676602542375</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01711686922208448</v>
+        <v>0.01630741458393496</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03877664794226971</v>
+        <v>0.03714148188845483</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -2328,19 +2328,19 @@
         <v>42753</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30300</v>
+        <v>30692</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58948</v>
+        <v>59295</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02093750863765118</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01483883101295433</v>
+        <v>0.01503090540001777</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02886903798299431</v>
+        <v>0.0290388374092585</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>997544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>987360</v>
+        <v>986377</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1004899</v>
+        <v>1004423</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9837755773897253</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9737327072904972</v>
+        <v>0.9727629922000226</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9910297065228073</v>
+        <v>0.9905601121293892</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>913</v>
@@ -2378,19 +2378,19 @@
         <v>1001615</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>988057</v>
+        <v>989738</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1010321</v>
+        <v>1011153</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9744132339745762</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9612233520577302</v>
+        <v>0.9628585181115451</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9828831307779154</v>
+        <v>0.9836925854160651</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1830</v>
@@ -2399,19 +2399,19 @@
         <v>1999157</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1982962</v>
+        <v>1982615</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2011610</v>
+        <v>2011218</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9790624913623488</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9711309620170057</v>
+        <v>0.9709611625907415</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9851611689870456</v>
+        <v>0.9849690945999823</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>15701</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8696</v>
+        <v>9121</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25937</v>
+        <v>26617</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02072380028101354</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01147824257362032</v>
+        <v>0.01203958529579608</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03423488108491416</v>
+        <v>0.03513267367501682</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -2524,19 +2524,19 @@
         <v>8456</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4082</v>
+        <v>4088</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16429</v>
+        <v>15949</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01091085051698625</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005267648256681774</v>
+        <v>0.005274789459169981</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02119908557296057</v>
+        <v>0.02058024346906722</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -2545,19 +2545,19 @@
         <v>24156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15048</v>
+        <v>15985</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36829</v>
+        <v>36007</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01576177753220395</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009818612666364435</v>
+        <v>0.01042994627935694</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02403034873233206</v>
+        <v>0.02349421010516284</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>741922</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>731686</v>
+        <v>731006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>748927</v>
+        <v>748502</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9792761997189865</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9657651189150858</v>
+        <v>0.9648673263249833</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9885217574263795</v>
+        <v>0.987960414704204</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>695</v>
@@ -2595,19 +2595,19 @@
         <v>766518</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>758545</v>
+        <v>759025</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>770892</v>
+        <v>770886</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9890891494830137</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9788009144270395</v>
+        <v>0.9794197565309329</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9947323517433183</v>
+        <v>0.99472521054083</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1370</v>
@@ -2616,19 +2616,19 @@
         <v>1508442</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1495769</v>
+        <v>1496591</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1517550</v>
+        <v>1516613</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.984238222467796</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9759696512676682</v>
+        <v>0.9765057898948373</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9901813873336357</v>
+        <v>0.9895700537206432</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>22673</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14562</v>
+        <v>14392</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34754</v>
+        <v>33784</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02417946397469647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0155293652041493</v>
+        <v>0.01534769834405892</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03706288795604051</v>
+        <v>0.03602840550196926</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -2741,19 +2741,19 @@
         <v>20089</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12328</v>
+        <v>12563</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30925</v>
+        <v>30538</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01924576024523849</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0118106562700347</v>
+        <v>0.01203582397537119</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02962649736273007</v>
+        <v>0.02925555038851431</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -2762,19 +2762,19 @@
         <v>42763</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30981</v>
+        <v>30286</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56916</v>
+        <v>58664</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02158051788966518</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01563506944235541</v>
+        <v>0.01528400314509627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02872332208200727</v>
+        <v>0.02960535096767911</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>915042</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>902961</v>
+        <v>903931</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>923153</v>
+        <v>923323</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9758205360253035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9629371120439594</v>
+        <v>0.9639715944980306</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9844706347958506</v>
+        <v>0.984652301655941</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>976</v>
@@ -2812,19 +2812,19 @@
         <v>1023733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1012897</v>
+        <v>1013284</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1031494</v>
+        <v>1031259</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9807542397547615</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.97037350263727</v>
+        <v>0.9707444496114856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9881893437299654</v>
+        <v>0.9879641760246288</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1855</v>
@@ -2833,19 +2833,19 @@
         <v>1938773</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1924620</v>
+        <v>1922872</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1950555</v>
+        <v>1951250</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9784194821103348</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9712766779179928</v>
+        <v>0.9703946490323213</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9843649305576445</v>
+        <v>0.9847159968549039</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>56556</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42109</v>
+        <v>42446</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73690</v>
+        <v>72657</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01657172608340086</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01233855453768955</v>
+        <v>0.01243732603169585</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02159212489357603</v>
+        <v>0.02128966962974415</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -2958,19 +2958,19 @@
         <v>57716</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44918</v>
+        <v>42467</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75402</v>
+        <v>74511</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01629671286977166</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01268292336441369</v>
+        <v>0.01199103059714544</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02129048302924894</v>
+        <v>0.0210389663153802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -2979,19 +2979,19 @@
         <v>114272</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93207</v>
+        <v>94538</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>138112</v>
+        <v>136963</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01643167304727566</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0134025999914357</v>
+        <v>0.0135940503269317</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01985962742272847</v>
+        <v>0.01969453237667335</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3356246</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3339112</v>
+        <v>3340145</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3370693</v>
+        <v>3370356</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9834282739165991</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9784078751064241</v>
+        <v>0.9787103303702559</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9876614454623105</v>
+        <v>0.9875626739683043</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3229</v>
@@ -3029,19 +3029,19 @@
         <v>3483871</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3466185</v>
+        <v>3467076</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3496669</v>
+        <v>3499120</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9837032871302284</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9787095169707511</v>
+        <v>0.9789610336846197</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9873170766355863</v>
+        <v>0.9880089694028547</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6372</v>
@@ -3050,19 +3050,19 @@
         <v>6840117</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6816277</v>
+        <v>6817426</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6861182</v>
+        <v>6859851</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9835683269527243</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9801403725772716</v>
+        <v>0.9803054676233267</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9865974000085643</v>
+        <v>0.9864059496730684</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>8891</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4001</v>
+        <v>4043</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17502</v>
+        <v>18108</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01320489817279166</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005941800423495243</v>
+        <v>0.006005311951269999</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02599289487606929</v>
+        <v>0.02689331462515188</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -3415,19 +3415,19 @@
         <v>3168</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8633</v>
+        <v>8504</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004721349585868937</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001355365131445557</v>
+        <v>0.001343359135262711</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01286699441515161</v>
+        <v>0.01267474325009446</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -3436,19 +3436,19 @@
         <v>12059</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6497</v>
+        <v>6250</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21434</v>
+        <v>22741</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008970556799043078</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004833384780809326</v>
+        <v>0.004649007760770324</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01594421474896682</v>
+        <v>0.01691674231210005</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>664429</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>655818</v>
+        <v>655212</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669319</v>
+        <v>669277</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9867951018272083</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9740071051239314</v>
+        <v>0.9731066853748482</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9940581995765048</v>
+        <v>0.9939946880487301</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>661</v>
@@ -3486,19 +3486,19 @@
         <v>667796</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>662331</v>
+        <v>662460</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>670055</v>
+        <v>670063</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9952786504141311</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9871330055848482</v>
+        <v>0.9873252567499056</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9986446348685544</v>
+        <v>0.9986566408647373</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1304</v>
@@ -3507,19 +3507,19 @@
         <v>1332225</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1322850</v>
+        <v>1321543</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1337787</v>
+        <v>1338034</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9910294432009569</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9840557852510331</v>
+        <v>0.9830832576878999</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9951666152191905</v>
+        <v>0.9953509922392296</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>12096</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6152</v>
+        <v>6493</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21131</v>
+        <v>22636</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01184318423967012</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006023848815389864</v>
+        <v>0.006357606267595704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02068949321224769</v>
+        <v>0.02216294252541557</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -3632,19 +3632,19 @@
         <v>17719</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11121</v>
+        <v>10780</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27790</v>
+        <v>28490</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01703853443215571</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01069345914786805</v>
+        <v>0.01036576168526157</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02672309074485561</v>
+        <v>0.02739579777411038</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -3653,19 +3653,19 @@
         <v>29815</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19175</v>
+        <v>19609</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43191</v>
+        <v>42694</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01446428363460782</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009302217042873887</v>
+        <v>0.009512882654940005</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02095367458083423</v>
+        <v>0.02071234456228296</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>1009252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1000217</v>
+        <v>998712</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1015196</v>
+        <v>1014855</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9881568157603299</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9793105067877524</v>
+        <v>0.9778370574745857</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9939761511846101</v>
+        <v>0.9936423937324047</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>958</v>
@@ -3703,19 +3703,19 @@
         <v>1022216</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1012145</v>
+        <v>1011445</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1028814</v>
+        <v>1029155</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9829614655678443</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9732769092551444</v>
+        <v>0.9726042022258896</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.989306540852132</v>
+        <v>0.9896342383147385</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1897</v>
@@ -3724,19 +3724,19 @@
         <v>2031468</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2018092</v>
+        <v>2018589</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2042108</v>
+        <v>2041674</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9855357163653922</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9790463254191656</v>
+        <v>0.9792876554377169</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9906977829571261</v>
+        <v>0.9904871173450599</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>12228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6152</v>
+        <v>5980</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21538</v>
+        <v>21318</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01612085010744754</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008110211514676707</v>
+        <v>0.00788418189641622</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02839491481136696</v>
+        <v>0.02810520000663484</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -3849,19 +3849,19 @@
         <v>26206</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16670</v>
+        <v>17976</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37844</v>
+        <v>38497</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03347693441183561</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0212955545000945</v>
+        <v>0.02296388931903587</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04834460000165898</v>
+        <v>0.04917884142712589</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -3870,19 +3870,19 @@
         <v>38433</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26915</v>
+        <v>26104</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51537</v>
+        <v>51483</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02493566638681896</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01746218874796233</v>
+        <v>0.01693648794476603</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03343729687849537</v>
+        <v>0.03340196260622718</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>746278</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>736968</v>
+        <v>737188</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>752354</v>
+        <v>752526</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9838791498925524</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9716050851886333</v>
+        <v>0.9718947999933653</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9918897884853233</v>
+        <v>0.9921158181035837</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>710</v>
@@ -3920,19 +3920,19 @@
         <v>756592</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>744954</v>
+        <v>744301</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>766128</v>
+        <v>764822</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9665230655881644</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9516553999983411</v>
+        <v>0.9508211585728741</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9787044454999054</v>
+        <v>0.9770361106809642</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1394</v>
@@ -3941,19 +3941,19 @@
         <v>1502871</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1489767</v>
+        <v>1489821</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1514389</v>
+        <v>1515200</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.975064333613181</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9665627031215046</v>
+        <v>0.9665980373937727</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9825378112520377</v>
+        <v>0.9830635120552339</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>12809</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6771</v>
+        <v>6682</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22663</v>
+        <v>21803</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01373687408959331</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007261886171305532</v>
+        <v>0.007165696127229676</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02430439962450534</v>
+        <v>0.02338243000240237</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -4066,19 +4066,19 @@
         <v>28353</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18774</v>
+        <v>19004</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41315</v>
+        <v>41002</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02734669642536377</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01810725838864914</v>
+        <v>0.01832942992147834</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03984811813316858</v>
+        <v>0.03954575103902114</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -4087,19 +4087,19 @@
         <v>41163</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29315</v>
+        <v>29369</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57097</v>
+        <v>56240</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02090238557224271</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01488613968913563</v>
+        <v>0.01491348043544202</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02899383877978383</v>
+        <v>0.02855885095861855</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>919652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>909798</v>
+        <v>910658</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>925690</v>
+        <v>925779</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9862631259104067</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9756956003754946</v>
+        <v>0.9766175699975976</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9927381138286945</v>
+        <v>0.9928343038727703</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>927</v>
@@ -4137,19 +4137,19 @@
         <v>1008462</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>995500</v>
+        <v>995813</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1018041</v>
+        <v>1017811</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9726533035746362</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9601518818668314</v>
+        <v>0.9604542489609788</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9818927416113509</v>
+        <v>0.9816705700785215</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1842</v>
@@ -4158,19 +4158,19 @@
         <v>1928113</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1912179</v>
+        <v>1913036</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1939961</v>
+        <v>1939907</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9790976144277573</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9710061612202167</v>
+        <v>0.9714411490413815</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9851138603108645</v>
+        <v>0.9850865195645581</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>46024</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33815</v>
+        <v>33151</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60447</v>
+        <v>62385</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01359390352139714</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009987750208644876</v>
+        <v>0.009791737424753951</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01785403474650687</v>
+        <v>0.0184263566666483</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -4283,19 +4283,19 @@
         <v>75446</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57521</v>
+        <v>58831</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93659</v>
+        <v>94788</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02136969479315706</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01629264890369675</v>
+        <v>0.01666361291740618</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02652837696665094</v>
+        <v>0.02684812667828664</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>111</v>
@@ -4304,19 +4304,19 @@
         <v>121470</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101725</v>
+        <v>100831</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>148309</v>
+        <v>145109</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0175632422657395</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01470838475738285</v>
+        <v>0.01457903737601208</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02144383690537686</v>
+        <v>0.02098125803704046</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3339611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3325188</v>
+        <v>3323250</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3351820</v>
+        <v>3352484</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9864060964786029</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9821459652534931</v>
+        <v>0.9815736433333517</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9900122497913552</v>
+        <v>0.990208262575246</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3256</v>
@@ -4354,19 +4354,19 @@
         <v>3455067</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3436854</v>
+        <v>3435725</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3472992</v>
+        <v>3471682</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9786303052068429</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9734716230333491</v>
+        <v>0.9731518733217133</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9837073510963035</v>
+        <v>0.9833363870825937</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6437</v>
@@ -4375,19 +4375,19 @@
         <v>6794678</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6767839</v>
+        <v>6771039</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6814423</v>
+        <v>6815317</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9824367577342605</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9785561630946231</v>
+        <v>0.9790187419629595</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9852916152426171</v>
+        <v>0.9854209626239878</v>
       </c>
     </row>
     <row r="18">
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4577</v>
+        <v>5283</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002113271558488722</v>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006637154410273932</v>
+        <v>0.007660160233422546</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -4740,19 +4740,19 @@
         <v>2042</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>704</v>
+        <v>621</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5113</v>
+        <v>5030</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.002782994961174489</v>
+        <v>0.002782994961174488</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0009599782285337961</v>
+        <v>0.0008469395064129008</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.006967961984710108</v>
+        <v>0.006855153986182519</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4761,19 +4761,19 @@
         <v>3499</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1413</v>
+        <v>1366</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7087</v>
+        <v>6562</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00245852153904245</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0009926220137426956</v>
+        <v>0.000959993709277331</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004979004664708546</v>
+        <v>0.004610312107682361</v>
       </c>
     </row>
     <row r="5">
@@ -4790,7 +4790,7 @@
         <v>688167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>685047</v>
+        <v>684341</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>689624</v>
@@ -4799,7 +4799,7 @@
         <v>0.9978867284415113</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9933628455897248</v>
+        <v>0.9923398397665772</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4811,19 +4811,19 @@
         <v>731740</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>728669</v>
+        <v>728752</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>733078</v>
+        <v>733161</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9972170050388256</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9930320380152902</v>
+        <v>0.9931448460138173</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9990400217714661</v>
+        <v>0.9991530604935872</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1962</v>
@@ -4832,19 +4832,19 @@
         <v>1419906</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1416318</v>
+        <v>1416843</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1421992</v>
+        <v>1422039</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9975414784609578</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9950209953352916</v>
+        <v>0.9953896878923175</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9990073779862573</v>
+        <v>0.9990400062907224</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>4566</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10439</v>
+        <v>11230</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004365062689525935</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001242233142695089</v>
+        <v>0.001231999125831836</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009979003111846532</v>
+        <v>0.01073542173928169</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -4957,19 +4957,19 @@
         <v>6723</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3051</v>
+        <v>3153</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12463</v>
+        <v>12411</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006282338731677562</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002850752694011866</v>
+        <v>0.002946712677606302</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01164653684485455</v>
+        <v>0.01159831013557507</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -4978,19 +4978,19 @@
         <v>11289</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6003</v>
+        <v>6134</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19549</v>
+        <v>19512</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005334574770812724</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002836495015101201</v>
+        <v>0.002898763952465409</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009237948254859693</v>
+        <v>0.009220330451319914</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1041528</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1035655</v>
+        <v>1034864</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1044795</v>
+        <v>1044805</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.995634937310474</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9900209968881536</v>
+        <v>0.9892645782607185</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9987577668573049</v>
+        <v>0.9987680008741682</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1506</v>
@@ -5028,19 +5028,19 @@
         <v>1063375</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1057635</v>
+        <v>1057687</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1067047</v>
+        <v>1066945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9937176612683225</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9883534631551456</v>
+        <v>0.9884016898644249</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9971492473059883</v>
+        <v>0.9970532873223936</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2463</v>
@@ -5049,19 +5049,19 @@
         <v>2104903</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2096643</v>
+        <v>2096680</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2110189</v>
+        <v>2110058</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9946654252291872</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9907620517451401</v>
+        <v>0.9907796695486796</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9971635049848989</v>
+        <v>0.9971012360475336</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>4834</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1309</v>
+        <v>1379</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11516</v>
+        <v>10691</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.006033644751813749</v>
+        <v>0.006033644751813748</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001633910027960587</v>
+        <v>0.001721296053681219</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01437291412280345</v>
+        <v>0.01334316747774122</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -5174,19 +5174,19 @@
         <v>3430</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1283</v>
+        <v>1342</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7511</v>
+        <v>8160</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004222853957684027</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001579684625994346</v>
+        <v>0.001652529378827529</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009247043349972232</v>
+        <v>0.01004622300070349</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -5195,19 +5195,19 @@
         <v>8264</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3998</v>
+        <v>3821</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16762</v>
+        <v>16432</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005122044078140742</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002478167081239173</v>
+        <v>0.002368461244890166</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01038862893175661</v>
+        <v>0.01018462412538567</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>796367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>789685</v>
+        <v>790510</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>799892</v>
+        <v>799822</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9939663552481862</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9856270858771967</v>
+        <v>0.9866568325222588</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9983660899720394</v>
+        <v>0.9982787039463197</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1042</v>
@@ -5245,19 +5245,19 @@
         <v>808829</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>804748</v>
+        <v>804099</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>810976</v>
+        <v>810917</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.995777146042316</v>
+        <v>0.9957771460423158</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9907529566500278</v>
+        <v>0.9899537769992965</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9984203153740057</v>
+        <v>0.9983474706211726</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1712</v>
@@ -5266,19 +5266,19 @@
         <v>1605195</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1596697</v>
+        <v>1597027</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1609461</v>
+        <v>1609638</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9948779559218592</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9896113710682436</v>
+        <v>0.9898153758746155</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9975218329187606</v>
+        <v>0.9976315387551099</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>27011</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16885</v>
+        <v>17862</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39330</v>
+        <v>40151</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02734416526472853</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01709307880054867</v>
+        <v>0.01808275209083237</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03981615432598963</v>
+        <v>0.04064658348634193</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -5391,19 +5391,19 @@
         <v>35410</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26479</v>
+        <v>25255</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47513</v>
+        <v>47195</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0318556002223163</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02382131907287902</v>
+        <v>0.02272001460819901</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04274447384853117</v>
+        <v>0.04245801548567038</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -5412,19 +5412,19 @@
         <v>62420</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49439</v>
+        <v>48354</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79754</v>
+        <v>79467</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02973286861109307</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02354936014321569</v>
+        <v>0.02303289441111165</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03798969256187949</v>
+        <v>0.03785295207296216</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>960788</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>948469</v>
+        <v>947648</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>970914</v>
+        <v>969937</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9726558347352715</v>
+        <v>0.9726558347352713</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9601838456740115</v>
+        <v>0.9593534165136584</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9829069211994516</v>
+        <v>0.981917247909168</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1500</v>
@@ -5462,19 +5462,19 @@
         <v>1076157</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1064054</v>
+        <v>1064372</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1085088</v>
+        <v>1086312</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9681443997776836</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.957255526151469</v>
+        <v>0.9575419845143295</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9761786809271211</v>
+        <v>0.9772799853918007</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2477</v>
@@ -5483,19 +5483,19 @@
         <v>2036947</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2019613</v>
+        <v>2019900</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2049928</v>
+        <v>2051013</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9702671313889069</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9620103074381204</v>
+        <v>0.9621470479270382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9764506398567844</v>
+        <v>0.9769671055888884</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>37868</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26219</v>
+        <v>26267</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52819</v>
+        <v>52477</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01074365020820381</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007438672027563699</v>
+        <v>0.007452154428965952</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01498528482582845</v>
+        <v>0.01488839208021984</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -5608,19 +5608,19 @@
         <v>47605</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37628</v>
+        <v>37210</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61165</v>
+        <v>61618</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01277046178530789</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01009411047760168</v>
+        <v>0.009982128828630166</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01640828122089821</v>
+        <v>0.01652964457744735</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -5629,19 +5629,19 @@
         <v>85473</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68705</v>
+        <v>69976</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>104874</v>
+        <v>103757</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01178542027123889</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009473406639879391</v>
+        <v>0.00964868309739474</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01446059456256115</v>
+        <v>0.01430647763469524</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3486850</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3471899</v>
+        <v>3472241</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3498499</v>
+        <v>3498451</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9892563497917963</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9850147151741714</v>
+        <v>0.9851116079197801</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9925613279724361</v>
+        <v>0.992547845571034</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5283</v>
@@ -5679,19 +5679,19 @@
         <v>3680101</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3666541</v>
+        <v>3666088</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3690078</v>
+        <v>3690496</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9872295382146919</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9835917187791021</v>
+        <v>0.9834703554225529</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9899058895223981</v>
+        <v>0.9900178711713699</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8614</v>
@@ -5700,19 +5700,19 @@
         <v>7166951</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7147550</v>
+        <v>7148667</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7183719</v>
+        <v>7182448</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9882145797287613</v>
+        <v>0.9882145797287609</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9855394054374388</v>
+        <v>0.9856935223653049</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9905265933601206</v>
+        <v>0.9903513169026054</v>
       </c>
     </row>
     <row r="18">
